--- a/SchedulingData/dynamic9/pso/scheduling1_7.xlsx
+++ b/SchedulingData/dynamic9/pso/scheduling1_7.xlsx
@@ -462,59 +462,59 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>82.3</v>
+        <v>65.28</v>
       </c>
       <c r="E2" t="n">
-        <v>26.4</v>
+        <v>26.172</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>50.28</v>
+        <v>61.18</v>
       </c>
       <c r="E3" t="n">
-        <v>26.172</v>
+        <v>27.032</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>82.3</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>135.94</v>
+        <v>61</v>
       </c>
       <c r="E4" t="n">
-        <v>22.656</v>
+        <v>25.58</v>
       </c>
     </row>
     <row r="5">
@@ -523,55 +523,55 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>91.2</v>
+        <v>88.94</v>
       </c>
       <c r="E5" t="n">
-        <v>24.54</v>
+        <v>26.256</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="D6" t="n">
-        <v>73.92</v>
+        <v>100.84</v>
       </c>
       <c r="E6" t="n">
-        <v>25.268</v>
+        <v>22.236</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>73.92</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>122.8</v>
+        <v>48.4</v>
       </c>
       <c r="E7" t="n">
-        <v>22.98</v>
+        <v>25.86</v>
       </c>
     </row>
     <row r="8">
@@ -580,55 +580,55 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>61.18</v>
       </c>
       <c r="D8" t="n">
-        <v>62.02</v>
+        <v>146.58</v>
       </c>
       <c r="E8" t="n">
-        <v>25.968</v>
+        <v>22.112</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>122.8</v>
+        <v>88.94</v>
       </c>
       <c r="D9" t="n">
-        <v>185.88</v>
+        <v>145.62</v>
       </c>
       <c r="E9" t="n">
-        <v>20.252</v>
+        <v>22.208</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>135.94</v>
+        <v>65.28</v>
       </c>
       <c r="D10" t="n">
-        <v>185.16</v>
+        <v>126.7</v>
       </c>
       <c r="E10" t="n">
-        <v>18.864</v>
+        <v>22.14</v>
       </c>
     </row>
     <row r="11">
@@ -637,17 +637,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>100.84</v>
       </c>
       <c r="D11" t="n">
-        <v>61</v>
+        <v>148.84</v>
       </c>
       <c r="E11" t="n">
-        <v>25.58</v>
+        <v>18.576</v>
       </c>
     </row>
     <row r="12">
@@ -656,55 +656,55 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>185.88</v>
+        <v>126.7</v>
       </c>
       <c r="D12" t="n">
-        <v>243</v>
+        <v>196.5</v>
       </c>
       <c r="E12" t="n">
-        <v>17.66</v>
+        <v>18.76</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>61</v>
+        <v>146.58</v>
       </c>
       <c r="D13" t="n">
-        <v>128.6</v>
+        <v>208.38</v>
       </c>
       <c r="E13" t="n">
-        <v>21.44</v>
+        <v>19.072</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>91.2</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>152.78</v>
+        <v>73.92</v>
       </c>
       <c r="E14" t="n">
-        <v>20.492</v>
+        <v>25.268</v>
       </c>
     </row>
     <row r="15">
@@ -713,93 +713,93 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>50.28</v>
+        <v>48.4</v>
       </c>
       <c r="D15" t="n">
-        <v>114.92</v>
+        <v>120.9</v>
       </c>
       <c r="E15" t="n">
-        <v>22.828</v>
+        <v>21.72</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>128.6</v>
+        <v>73.92</v>
       </c>
       <c r="D16" t="n">
-        <v>176.6</v>
+        <v>131.02</v>
       </c>
       <c r="E16" t="n">
-        <v>17.28</v>
+        <v>21.668</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>114.92</v>
+        <v>148.84</v>
       </c>
       <c r="D17" t="n">
-        <v>156.14</v>
+        <v>199.42</v>
       </c>
       <c r="E17" t="n">
-        <v>19.836</v>
+        <v>15.628</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>185.16</v>
+        <v>145.62</v>
       </c>
       <c r="D18" t="n">
-        <v>235.94</v>
+        <v>189.2</v>
       </c>
       <c r="E18" t="n">
-        <v>15.916</v>
+        <v>19.48</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>243</v>
+        <v>120.9</v>
       </c>
       <c r="D19" t="n">
-        <v>305.7</v>
+        <v>191.8</v>
       </c>
       <c r="E19" t="n">
-        <v>13.52</v>
+        <v>16.26</v>
       </c>
     </row>
     <row r="20">
@@ -808,17 +808,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>176.6</v>
+        <v>199.42</v>
       </c>
       <c r="D20" t="n">
-        <v>242.18</v>
+        <v>271.92</v>
       </c>
       <c r="E20" t="n">
-        <v>14.312</v>
+        <v>11.468</v>
       </c>
     </row>
     <row r="21">
@@ -827,93 +827,93 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>156.14</v>
+        <v>191.8</v>
       </c>
       <c r="D21" t="n">
-        <v>228.14</v>
+        <v>248.94</v>
       </c>
       <c r="E21" t="n">
-        <v>15.756</v>
+        <v>12.676</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>242.18</v>
+        <v>196.5</v>
       </c>
       <c r="D22" t="n">
-        <v>327.58</v>
+        <v>262.24</v>
       </c>
       <c r="E22" t="n">
-        <v>9.391999999999999</v>
+        <v>15.276</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>235.94</v>
+        <v>189.2</v>
       </c>
       <c r="D23" t="n">
-        <v>293.2</v>
+        <v>256.5</v>
       </c>
       <c r="E23" t="n">
-        <v>13.32</v>
+        <v>15.84</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>327.58</v>
+        <v>131.02</v>
       </c>
       <c r="D24" t="n">
-        <v>377.78</v>
+        <v>190.04</v>
       </c>
       <c r="E24" t="n">
-        <v>6.012</v>
+        <v>17.876</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>62.02</v>
+        <v>256.5</v>
       </c>
       <c r="D25" t="n">
-        <v>118.42</v>
+        <v>303.56</v>
       </c>
       <c r="E25" t="n">
-        <v>22.928</v>
+        <v>13.244</v>
       </c>
     </row>
     <row r="26">
@@ -922,112 +922,112 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>228.14</v>
+        <v>248.94</v>
       </c>
       <c r="D26" t="n">
-        <v>300.94</v>
+        <v>327.72</v>
       </c>
       <c r="E26" t="n">
-        <v>12.116</v>
+        <v>10.388</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>293.2</v>
+        <v>271.92</v>
       </c>
       <c r="D27" t="n">
-        <v>356.52</v>
+        <v>322.94</v>
       </c>
       <c r="E27" t="n">
-        <v>10.108</v>
+        <v>8.476000000000001</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>118.42</v>
+        <v>190.04</v>
       </c>
       <c r="D28" t="n">
-        <v>212.4</v>
+        <v>243.36</v>
       </c>
       <c r="E28" t="n">
-        <v>19.12</v>
+        <v>14.664</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>152.78</v>
+        <v>208.38</v>
       </c>
       <c r="D29" t="n">
-        <v>218.52</v>
+        <v>260.4</v>
       </c>
       <c r="E29" t="n">
-        <v>17.008</v>
+        <v>16.48</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>305.7</v>
+        <v>260.4</v>
       </c>
       <c r="D30" t="n">
-        <v>363.6</v>
+        <v>329.68</v>
       </c>
       <c r="E30" t="n">
-        <v>9.859999999999999</v>
+        <v>12.672</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>212.4</v>
+        <v>243.36</v>
       </c>
       <c r="D31" t="n">
-        <v>294.34</v>
+        <v>325.06</v>
       </c>
       <c r="E31" t="n">
-        <v>15.536</v>
+        <v>10.584</v>
       </c>
     </row>
   </sheetData>
